--- a/biology/Botanique/Anacamptis_collina/Anacamptis_collina.xlsx
+++ b/biology/Botanique/Anacamptis_collina/Anacamptis_collina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis collina (ancien nom: Orchis collina Banks &amp; Sol. ex Russell), l’Orchis des collines, est une plante herbacée de la famille des Orchidacées. C'est la seule espèce d'orchidées à avoir le statut RE (disparue de métropole) sur la liste rouge de l'UICN France.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles : 2 à 4 à la base
 Inflorescence : de 2 à 20 fleurs
@@ -545,10 +559,12 @@
           <t>Répartition et protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pourtour méditerranéen jusqu'au Turkménistan. Rare, mais présente au Portugal, en Espagne, particulièrement en Andalousie, en Italie (Sicile et Pouilles), en Grèce (Péloponnèse, Crète, Rhodes), Malte, Tunisie, Chypres etc. Cette espèce a disparu de France métropolitaine, la dernière station connue était à Hyères dans le Var[1].
-Cette espèce est protégée en Algérie et dans la plupart des pays où elle a été répertoriée. Elle est rare dans les broussailles, pâturages et forêts des secteurs algérois et oranais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pourtour méditerranéen jusqu'au Turkménistan. Rare, mais présente au Portugal, en Espagne, particulièrement en Andalousie, en Italie (Sicile et Pouilles), en Grèce (Péloponnèse, Crète, Rhodes), Malte, Tunisie, Chypres etc. Cette espèce a disparu de France métropolitaine, la dernière station connue était à Hyères dans le Var.
+Cette espèce est protégée en Algérie et dans la plupart des pays où elle a été répertoriée. Elle est rare dans les broussailles, pâturages et forêts des secteurs algérois et oranais.
 </t>
         </is>
       </c>
